--- a/to_do.xlsx
+++ b/to_do.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11006"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charlesmoore/Documents/GitHub/Puny-Asterix/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charlesmoorejr/Documents/GitHub/Puny-Asterix/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B51AE379-DC8F-B344-9F0F-F87BB66EF491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46591137-8B47-C344-B743-D95E9EEE7AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{DC2E0E1D-E913-AF4A-8421-C87C714F2EEA}"/>
+    <workbookView xWindow="960" yWindow="1160" windowWidth="26380" windowHeight="17280" xr2:uid="{DC2E0E1D-E913-AF4A-8421-C87C714F2EEA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>To-Do:</t>
   </si>
@@ -51,19 +51,44 @@
   </si>
   <si>
     <t>finish "THEY ARRIVE"</t>
+  </si>
+  <si>
+    <t>8E0FD814-0041-4E2B-B1A1-13E42932A53F</t>
+  </si>
+  <si>
+    <t>fix score going up error</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -86,8 +111,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,40 +451,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D62505F-66D1-3D44-84AC-06EAEDA2AB7E}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="47.5" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/to_do.xlsx
+++ b/to_do.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charlesmoorejr/Documents/GitHub/Puny-Asterix/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46591137-8B47-C344-B743-D95E9EEE7AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E79DE05C-F230-8541-811C-BDF50FE33033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="1160" windowWidth="26380" windowHeight="17280" xr2:uid="{DC2E0E1D-E913-AF4A-8421-C87C714F2EEA}"/>
+    <workbookView xWindow="960" yWindow="1160" windowWidth="10020" windowHeight="12560" xr2:uid="{DC2E0E1D-E913-AF4A-8421-C87C714F2EEA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>To-Do:</t>
   </si>
@@ -60,6 +60,12 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>swap in release room names</t>
+  </si>
+  <si>
+    <t>release compile</t>
   </si>
 </sst>
 </file>
@@ -454,7 +460,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -472,11 +478,17 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -490,6 +502,9 @@
       <c r="A5" t="s">
         <v>4</v>
       </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -497,6 +512,16 @@
       </c>
       <c r="B6" s="2" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="17" x14ac:dyDescent="0.25">
